--- a/doc/dev/metadata/steles_metadata.xlsx
+++ b/doc/dev/metadata/steles_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\iconr\doc\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\iconr\doc\dev\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D79848F-F0E7-4ECC-BE9F-456D8815A9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2800C63E-6D02-426A-A9FB-1A4439801AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,12 +104,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,11 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +418,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,10 +433,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -450,10 +445,10 @@
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -461,48 +456,48 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/doc/dev/metadata/steles_metadata.xlsx
+++ b/doc/dev/metadata/steles_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\iconr\doc\dev\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2800C63E-6D02-426A-A9FB-1A4439801AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC4118-030F-4D7C-BB90-4C1836D0BB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B1214D4D-B4B0-4190-9C4B-218E1837963A}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B1214D4D-B4B0-4190-9C4B-218E1837963A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Test</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="222">
   <si>
     <t>site</t>
   </si>
@@ -85,13 +103,619 @@
   </si>
   <si>
     <t>caption</t>
+  </si>
+  <si>
+    <t>Cancho Roano</t>
+  </si>
+  <si>
+    <t>Cabeza de Buey</t>
+  </si>
+  <si>
+    <t>Alamillo</t>
+  </si>
+  <si>
+    <t>Viso (El)</t>
+  </si>
+  <si>
+    <t>Valencia de Alcantara</t>
+  </si>
+  <si>
+    <t>Guadalmez (Rio)</t>
+  </si>
+  <si>
+    <t>Alto de la Cruz</t>
+  </si>
+  <si>
+    <t>Tojais</t>
+  </si>
+  <si>
+    <t>Monte de Forninhos</t>
+  </si>
+  <si>
+    <t>Mirasiviene</t>
+  </si>
+  <si>
+    <t>Pedra Alta</t>
+  </si>
+  <si>
+    <t>Torres Alocaz</t>
+  </si>
+  <si>
+    <t>Zebros</t>
+  </si>
+  <si>
+    <t>Baracal</t>
+  </si>
+  <si>
+    <t>Solana de Cabanas</t>
+  </si>
+  <si>
+    <t>Orellana de la Sierra</t>
+  </si>
+  <si>
+    <t>Capilla</t>
+  </si>
+  <si>
+    <t>Cogolludo</t>
+  </si>
+  <si>
+    <t>Valdetorres</t>
+  </si>
+  <si>
+    <t>Torrejon Rubio</t>
+  </si>
+  <si>
+    <t>Bienvenida (La)</t>
+  </si>
+  <si>
+    <t>Almoharin</t>
+  </si>
+  <si>
+    <t>Pedro Abad</t>
+  </si>
+  <si>
+    <t>Ecija</t>
+  </si>
+  <si>
+    <t>Almargen</t>
+  </si>
+  <si>
+    <t>Benquerencia</t>
+  </si>
+  <si>
+    <t>Zarza Capilla</t>
+  </si>
+  <si>
+    <t>Aldeia Vehla</t>
+  </si>
+  <si>
+    <t>Puerto de Honduras</t>
+  </si>
+  <si>
+    <t>Robleda</t>
+  </si>
+  <si>
+    <t>Telhado</t>
+  </si>
+  <si>
+    <t>Blanco-Olivenza (Monte)</t>
+  </si>
+  <si>
+    <t>Cerro Muriano</t>
+  </si>
+  <si>
+    <t>Pedra da Atalaia</t>
+  </si>
+  <si>
+    <t>Setefilla</t>
+  </si>
+  <si>
+    <t>Brozas</t>
+  </si>
+  <si>
+    <t>Meimao</t>
+  </si>
+  <si>
+    <t>Quinterias</t>
+  </si>
+  <si>
+    <t>Almaden de la Plata</t>
+  </si>
+  <si>
+    <t>Robledillo de Trujillo</t>
+  </si>
+  <si>
+    <t>Aldeanueva de San Bartolome</t>
+  </si>
+  <si>
+    <t>Ibahernando</t>
+  </si>
+  <si>
+    <t>Cortijo de la Reina</t>
+  </si>
+  <si>
+    <t>Salen</t>
+  </si>
+  <si>
+    <t>Talavera de la Reina</t>
+  </si>
+  <si>
+    <t>Hernan Perez</t>
+  </si>
+  <si>
+    <t>Montemayor</t>
+  </si>
+  <si>
+    <t>Aldea del Rey</t>
+  </si>
+  <si>
+    <t>Burguillos</t>
+  </si>
+  <si>
+    <t>Chillon</t>
+  </si>
+  <si>
+    <t>Montemolin</t>
+  </si>
+  <si>
+    <t>Cuatro Casas</t>
+  </si>
+  <si>
+    <t>Belalcazar</t>
+  </si>
+  <si>
+    <t>Espiel</t>
+  </si>
+  <si>
+    <t>Logrosan</t>
+  </si>
+  <si>
+    <t>Coronil (El)</t>
+  </si>
+  <si>
+    <t>Esparragosa de Lares</t>
+  </si>
+  <si>
+    <t>Tres Arroyos</t>
+  </si>
+  <si>
+    <t>Herencias (Las)</t>
+  </si>
+  <si>
+    <t>Magacela</t>
+  </si>
+  <si>
+    <t>Carneril (El)</t>
+  </si>
+  <si>
+    <t>Ribera Alta</t>
+  </si>
+  <si>
+    <t>Haza de Trillo</t>
+  </si>
+  <si>
+    <t>Figueira</t>
+  </si>
+  <si>
+    <t>Caceres (Provincia de)</t>
+  </si>
+  <si>
+    <t>Ervidel</t>
+  </si>
+  <si>
+    <t>Zarza de Montanchez</t>
+  </si>
+  <si>
+    <t>Pocito Chico</t>
+  </si>
+  <si>
+    <t>Foios</t>
+  </si>
+  <si>
+    <t>Vega (La)</t>
+  </si>
+  <si>
+    <t>Ategua</t>
+  </si>
+  <si>
+    <t>Valpalmas</t>
+  </si>
+  <si>
+    <t>Martin de Trevejo (San)</t>
+  </si>
+  <si>
+    <t>Fuente de Cantos</t>
+  </si>
+  <si>
+    <t>Martinho (San)</t>
+  </si>
+  <si>
+    <t>Ana de Trujillo (Santa)</t>
+  </si>
+  <si>
+    <t>Granja de Cespedes</t>
+  </si>
+  <si>
+    <t>Capote</t>
+  </si>
+  <si>
+    <t>Salvatierra de Santiago</t>
+  </si>
+  <si>
+    <t>Substantio</t>
+  </si>
+  <si>
+    <t>Arroyo Bonaval</t>
+  </si>
+  <si>
+    <t>Quintana de la Serena</t>
+  </si>
+  <si>
+    <t>Cancho Roano.jpg</t>
+  </si>
+  <si>
+    <t>Cabeza De Buey 2.jpg</t>
+  </si>
+  <si>
+    <t>Alamillo.jpg</t>
+  </si>
+  <si>
+    <t>El Viso 3.jpg</t>
+  </si>
+  <si>
+    <t>Valencia De Alcantara 4.jpg</t>
+  </si>
+  <si>
+    <t>Rio Guadalmez.jpg</t>
+  </si>
+  <si>
+    <t>stele_ade.gif</t>
+  </si>
+  <si>
+    <t>stele_adf.gif</t>
+  </si>
+  <si>
+    <t>stele_1_adn.gif</t>
+  </si>
+  <si>
+    <t>stele_adt.gif</t>
+  </si>
+  <si>
+    <t>stele_2_adn.gif</t>
+  </si>
+  <si>
+    <t>stele_adm.gif</t>
+  </si>
+  <si>
+    <t>Torres Alocaz.jpg</t>
+  </si>
+  <si>
+    <t>stele.gif</t>
+  </si>
+  <si>
+    <t>stele_2_adh.gif</t>
+  </si>
+  <si>
+    <t>Solana De Cabanas.jpg</t>
+  </si>
+  <si>
+    <t>Orellana De La Sierra.jpg</t>
+  </si>
+  <si>
+    <t>Capilla 8.jpg</t>
+  </si>
+  <si>
+    <t>Cogolludo_Navalvillar De La Pela.jpg</t>
+  </si>
+  <si>
+    <t>Valdetorres 2.jpg</t>
+  </si>
+  <si>
+    <t>Torrejon Rubio 4.jpg</t>
+  </si>
+  <si>
+    <t>La Bienvenida 3.jpg</t>
+  </si>
+  <si>
+    <t>Almoharin.jpg</t>
+  </si>
+  <si>
+    <t>Pedro Abad.jpg</t>
+  </si>
+  <si>
+    <t>Ecija 4.jpg</t>
+  </si>
+  <si>
+    <t>Valencia De Alcantara 3.jpg</t>
+  </si>
+  <si>
+    <t>Almargen.jpg</t>
+  </si>
+  <si>
+    <t>Benquerencia.jpg</t>
+  </si>
+  <si>
+    <t>Zarza Capilla 3.jpg</t>
+  </si>
+  <si>
+    <t>stele_adg.gif</t>
+  </si>
+  <si>
+    <t>stele_adl.gif</t>
+  </si>
+  <si>
+    <t>Monte Blanco-Olivenza.jpg</t>
+  </si>
+  <si>
+    <t>El Viso 1.jpg</t>
+  </si>
+  <si>
+    <t>Baracal.jpg</t>
+  </si>
+  <si>
+    <t>Cabeza De Buey 1.jpg</t>
+  </si>
+  <si>
+    <t>Cerro Muriano 2.jpg</t>
+  </si>
+  <si>
+    <t>Ecija 2.jpg</t>
+  </si>
+  <si>
+    <t>Pedra Da Atalaia 1.jpg</t>
+  </si>
+  <si>
+    <t>Setefilla.jpg</t>
+  </si>
+  <si>
+    <t>Brozas.jpg</t>
+  </si>
+  <si>
+    <t>Meimao.jpg</t>
+  </si>
+  <si>
+    <t>Ecija 5_El Berraco_abq.gif</t>
+  </si>
+  <si>
+    <t>Quinterias- Herrera Del Duque.jpg</t>
+  </si>
+  <si>
+    <t>Capilla 6.jpg</t>
+  </si>
+  <si>
+    <t>Almaden De La Plata 2.jpg</t>
+  </si>
+  <si>
+    <t>Robledillo De Trujillo.jpg</t>
+  </si>
+  <si>
+    <t>Aldeanueva De San Bartolome.jpg</t>
+  </si>
+  <si>
+    <t>Ibahernando.jpg</t>
+  </si>
+  <si>
+    <t>Cortijo de La Reina 1.jpg</t>
+  </si>
+  <si>
+    <t>Buoux 2.jpg</t>
+  </si>
+  <si>
+    <t>Capilla 4.jpg</t>
+  </si>
+  <si>
+    <t>Talavera De La Reina.jpg</t>
+  </si>
+  <si>
+    <t>Hernan Perez (Estela Del Sw).jpg</t>
+  </si>
+  <si>
+    <t>Montemayor.jpg</t>
+  </si>
+  <si>
+    <t>Aldea Del Rey 1.jpg</t>
+  </si>
+  <si>
+    <t>Burguillos.jpg</t>
+  </si>
+  <si>
+    <t>Zarza Capilla 2.jpg</t>
+  </si>
+  <si>
+    <t>Chillon.jpg</t>
+  </si>
+  <si>
+    <t>Montemolin.jpg</t>
+  </si>
+  <si>
+    <t>Cerro Muriano 1.jpg</t>
+  </si>
+  <si>
+    <t>Capilla 2.jpg</t>
+  </si>
+  <si>
+    <t>Cuatro Casas_Carmona.jpg</t>
+  </si>
+  <si>
+    <t>El Viso 6.jpg</t>
+  </si>
+  <si>
+    <t>Belalcazar.jpg</t>
+  </si>
+  <si>
+    <t>Espiel.jpg</t>
+  </si>
+  <si>
+    <t>La Bienvenida 1.jpg</t>
+  </si>
+  <si>
+    <t>Logrosan 2.jpg</t>
+  </si>
+  <si>
+    <t>El Coronil.jpg</t>
+  </si>
+  <si>
+    <t>Cortijo de La Reina 2.jpg</t>
+  </si>
+  <si>
+    <t>Esparragosa De Lares 2.jpg</t>
+  </si>
+  <si>
+    <t>Aldea Del Rey 3.jpg</t>
+  </si>
+  <si>
+    <t>Valencia De Alcantara 1.jpg</t>
+  </si>
+  <si>
+    <t>Esparragosa De Lares 3_acm.jpg</t>
+  </si>
+  <si>
+    <t>Tres Arroyos - Albuquerque.jpg</t>
+  </si>
+  <si>
+    <t>Ecija 1.jpg</t>
+  </si>
+  <si>
+    <t>La Bienvenida 2.jpg</t>
+  </si>
+  <si>
+    <t>El Viso 2.jpg</t>
+  </si>
+  <si>
+    <t>Las Herencias 1.jpg</t>
+  </si>
+  <si>
+    <t>Buoux 1.jpg</t>
+  </si>
+  <si>
+    <t>Las Herencias 2.jpg</t>
+  </si>
+  <si>
+    <t>Magacela.jpg</t>
+  </si>
+  <si>
+    <t>El Carneril_Trujillo.jpg</t>
+  </si>
+  <si>
+    <t>Capilla 5.jpg</t>
+  </si>
+  <si>
+    <t>Cordoba 2_Ribera Alta.jpg</t>
+  </si>
+  <si>
+    <t>Haza De Trillo-Toya.jpg</t>
+  </si>
+  <si>
+    <t>Ecija 3.jpg</t>
+  </si>
+  <si>
+    <t>Figueira.jpg</t>
+  </si>
+  <si>
+    <t>Provincia De Caceres.jpg</t>
+  </si>
+  <si>
+    <t>Valdetorres 1.jpg</t>
+  </si>
+  <si>
+    <t>El Viso 4.jpg</t>
+  </si>
+  <si>
+    <t>Aldea Del Rey 2.jpg</t>
+  </si>
+  <si>
+    <t>Logrosan 1.jpg</t>
+  </si>
+  <si>
+    <t>Esparragosa De Lares 1_Castuera.jpg</t>
+  </si>
+  <si>
+    <t>Ervidel 2.jpg</t>
+  </si>
+  <si>
+    <t>Zarza De Montanchez.jpg</t>
+  </si>
+  <si>
+    <t>Capilla 7.jpg</t>
+  </si>
+  <si>
+    <t>Pocito Chico.jpg</t>
+  </si>
+  <si>
+    <t>Torrejon Rubio 3.jpg</t>
+  </si>
+  <si>
+    <t>Zarza Capilla 1.jpg</t>
+  </si>
+  <si>
+    <t>Foios.jpg</t>
+  </si>
+  <si>
+    <t>Cordoba 1_La Vega.jpg</t>
+  </si>
+  <si>
+    <t>Ategua.jpg</t>
+  </si>
+  <si>
+    <t>Luna_Valpalmas.jpg</t>
+  </si>
+  <si>
+    <t>Valencia De Alcantara 2.jpg</t>
+  </si>
+  <si>
+    <t>San Martin De Trevejo.jpg</t>
+  </si>
+  <si>
+    <t>Almaden De La Plata 1.jpg</t>
+  </si>
+  <si>
+    <t>Torrejon Rubio 1.jpg</t>
+  </si>
+  <si>
+    <t>Fuente De Cantos.jpg</t>
+  </si>
+  <si>
+    <t>San Martinho 2.jpg</t>
+  </si>
+  <si>
+    <t>Santa Ana De Trujillo.jpg</t>
+  </si>
+  <si>
+    <t>Granja De Cespedes-Badajoz.jpg</t>
+  </si>
+  <si>
+    <t>Capote.jpg</t>
+  </si>
+  <si>
+    <t>Salvatierra De Santiago 2.jpg</t>
+  </si>
+  <si>
+    <t>stele_pn.jpg</t>
+  </si>
+  <si>
+    <t>Capilla 3.jpg</t>
+  </si>
+  <si>
+    <t>Arroyo Bonaval-Almendralejo.jpg</t>
+  </si>
+  <si>
+    <t>Capilla 1.jpg</t>
+  </si>
+  <si>
+    <t>Cabeza De Buey 3.jpg</t>
+  </si>
+  <si>
+    <t>Cabeza De Buey 4_Majada Honda.jpg</t>
+  </si>
+  <si>
+    <t>Quintana De La Serena.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +729,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,9 +765,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,6 +783,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Thomas Huet" id="{EA634A1D-5284-4E9E-9458-5DBE923CCD32}" userId="Thomas Huet" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,21 +1052,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2022-11-20T16:24:07.39" personId="{EA634A1D-5284-4E9E-9458-5DBE923CCD32}" id="{B1214D4D-B4B0-4190-9C4B-218E1837963A}">
+    <text>Test</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
@@ -433,77 +1083,1054 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>74</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>90</v>
+      </c>
+      <c r="B107" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>95</v>
+      </c>
+      <c r="B115" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>98</v>
+      </c>
+      <c r="B118" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>101</v>
+      </c>
+      <c r="B125" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>